--- a/biology/Médecine/Éditions_Vigot-Maloine/Éditions_Vigot-Maloine.xlsx
+++ b/biology/Médecine/Éditions_Vigot-Maloine/Éditions_Vigot-Maloine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Vigot-Maloine</t>
+          <t>Éditions_Vigot-Maloine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Éditions Vigot-Maloine sont un groupe éditorial français spécialisé dans les ouvrages de médecine, bien-être et vie quotidienne. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Vigot-Maloine</t>
+          <t>Éditions_Vigot-Maloine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1890, Paul Vigot (1864-1937) fonde à Paris une maison d'édition appelée la « Librairie Paul Vigot », après un passage chez Flammarion, J.-B. Baillère et Félix Alcan. La maison est domiciliée 10 rue Monsieur-le-Prince[1]. La société devient « Librairie Vigot frères, éditeurs » spécialisée dans les ouvrages de médecine, spiritualité et esthétique[2]. En 1900, le siège déménage au 23 rue de l'École-de-Médecine[3], raison sociale et adresse restent inchangées durant plus de cinquante ans. En 1923, l'entreprise rachète différents fonds d'éditions médicales comme Asselin-Huzeau, fondées à Paris en 1820, puis de Rueff, Lecrosnier et Babé. Elle lance plusieurs revues médicales : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1890, Paul Vigot (1864-1937) fonde à Paris une maison d'édition appelée la « Librairie Paul Vigot », après un passage chez Flammarion, J.-B. Baillère et Félix Alcan. La maison est domiciliée 10 rue Monsieur-le-Prince. La société devient « Librairie Vigot frères, éditeurs » spécialisée dans les ouvrages de médecine, spiritualité et esthétique. En 1900, le siège déménage au 23 rue de l'École-de-Médecine, raison sociale et adresse restent inchangées durant plus de cinquante ans. En 1923, l'entreprise rachète différents fonds d'éditions médicales comme Asselin-Huzeau, fondées à Paris en 1820, puis de Rueff, Lecrosnier et Babé. Elle lance plusieurs revues médicales : 
 Les Archives internationales de laryngologie otologie
  Les Archives de physique biologique et de chimie
  Le Bulletin des sciences pharmacologiques
@@ -524,10 +538,10 @@
  La Revue de médecine et d’hygiène tropicale
  La Revue médico-chirurgicale des maladies du foie, du pancréas et de la rate
  La Revue des abattoirs d’hygiène alimentaire
-En mai 1937, Paul Vigot meurt, la maison est reprise par ses enfants qui continuent à produire des ouvrages médicaux[4]. La société entreprend la traduction de classiques médicaux anglo-saxons. En 1971, les petits-fils du fondateur reprennent la direction. 
-Vigot rachète les éditions Maloine en novembre 1987 à Quillet, filiale indirecte de Matra[4]. Spécialisée dans le médical, la Librairie Maloine avait été ouverte à Paris en 1881 par Alexandre Maloine (1849-1925), au 91 boulevard Saint-Germain[4]. 
+En mai 1937, Paul Vigot meurt, la maison est reprise par ses enfants qui continuent à produire des ouvrages médicaux. La société entreprend la traduction de classiques médicaux anglo-saxons. En 1971, les petits-fils du fondateur reprennent la direction. 
+Vigot rachète les éditions Maloine en novembre 1987 à Quillet, filiale indirecte de Matra. Spécialisée dans le médical, la Librairie Maloine avait été ouverte à Paris en 1881 par Alexandre Maloine (1849-1925), au 91 boulevard Saint-Germain. 
 Dès 1886, Maloine publie ses premiers livres et s’installe en 1888 place (aujourd'hui rue) de l'École-de-Médecine, puis, en 1904, 25-27 rue de l'École-de-Médecine, tout à côté des éditions Vigot. En 1915, Norbert Maloine (1886-1967) rejoint la maison d’édition. En 1934, la Librairie Maloine est cédée aux Éditions Aristide Quillet.
-Les deux structures sont établies à Paris. Depuis une vingtaine d'années, les ouvrages publiés portent sur la médecine, mais aussi sur le bien-être et la vie quotidienne (diététique, sports, loisirs, etc.). Indépendantes, les deux sociétés sont aujourd'hui dirigées par Christian et Daniel Vigot, descendants de Paul Vigot, au sein d'une holding[5],[6].
+Les deux structures sont établies à Paris. Depuis une vingtaine d'années, les ouvrages publiés portent sur la médecine, mais aussi sur le bien-être et la vie quotidienne (diététique, sports, loisirs, etc.). Indépendantes, les deux sociétés sont aujourd'hui dirigées par Christian et Daniel Vigot, descendants de Paul Vigot, au sein d'une holding,.
 </t>
         </is>
       </c>
